--- a/data/trans_orig/ED_ADU-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ED_ADU-Habitat-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Edad adulto elegido</t>
+          <t>Edad media del adulto entrevistado</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>46,69</t>
+          <t>43,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>46,16</t>
+          <t>46,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>47,05</t>
+          <t>46,99</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>53,0</t>
+          <t>49,87</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>49,01</t>
+          <t>46,18</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>48,52</t>
+          <t>48,05</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>47,66</t>
+          <t>49,77</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>55,61</t>
+          <t>51,28</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>47,83</t>
+          <t>45,07</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>47,32</t>
+          <t>47,22</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>47,35</t>
+          <t>48,38</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>54,47</t>
+          <t>50,62</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>42,78; 50,55</t>
+          <t>42,57; 45,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,45; 49,54</t>
+          <t>45,05; 47,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,75; 50,23</t>
+          <t>45,66; 48,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>48,13; 57,06</t>
+          <t>47,73; 51,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>45,91; 52,42</t>
+          <t>44,71; 47,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,55; 51,71</t>
+          <t>46,52; 49,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,41; 51,23</t>
+          <t>48,33; 51,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>51,73; 58,57</t>
+          <t>49,21; 52,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>45,49; 50,5</t>
+          <t>44,06; 46,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>45,02; 49,86</t>
+          <t>46,31; 48,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>45,1; 49,64</t>
+          <t>47,49; 49,36</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>51,65; 57,03</t>
+          <t>49,37; 51,77</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>43,43</t>
+          <t>43,5</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>46,44</t>
+          <t>44,06</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>46,98</t>
+          <t>45,55</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>50,03</t>
+          <t>47,51</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>45,63</t>
+          <t>45,66</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,97</t>
+          <t>45,65</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>50,2</t>
+          <t>47,9</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>50,79</t>
+          <t>49,71</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>44,53</t>
+          <t>44,58</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>47,2</t>
+          <t>44,86</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>48,59</t>
+          <t>46,73</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>50,43</t>
+          <t>48,49</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,02; 45,03</t>
+          <t>42,45; 44,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,73; 47,99</t>
+          <t>42,98; 45,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,61; 48,51</t>
+          <t>44,45; 46,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,07; 51,79</t>
+          <t>45,97; 49,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,19; 47,29</t>
+          <t>44,48; 46,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>46,31; 49,44</t>
+          <t>44,42; 46,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>48,47; 51,84</t>
+          <t>46,76; 49,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>49,14; 52,21</t>
+          <t>48,52; 50,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43,45; 45,72</t>
+          <t>43,71; 45,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>46,19; 48,31</t>
+          <t>43,98; 45,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>47,51; 49,81</t>
+          <t>45,92; 47,58</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>49,1; 51,56</t>
+          <t>47,51; 49,5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>43,5</t>
+          <t>44,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>44,06</t>
+          <t>43,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>45,55</t>
+          <t>44,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>47,39</t>
+          <t>48,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>45,66</t>
+          <t>46,31</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>45,65</t>
+          <t>46,58</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>47,9</t>
+          <t>46,3</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>49,62</t>
+          <t>53,06</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>44,58</t>
+          <t>45,38</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>44,86</t>
+          <t>45,08</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>46,73</t>
+          <t>45,46</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>48,52</t>
+          <t>51,14</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>42,45; 44,72</t>
+          <t>43,15; 45,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,98; 45,26</t>
+          <t>42,24; 45,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>44,45; 46,67</t>
+          <t>43,34; 45,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>46,04; 48,78</t>
+          <t>46,73; 50,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>44,48; 46,92</t>
+          <t>44,96; 47,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,42; 46,83</t>
+          <t>45,27; 47,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>46,76; 49,12</t>
+          <t>44,87; 47,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>48,41; 50,82</t>
+          <t>48,77; 59,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>43,71; 45,43</t>
+          <t>44,38; 46,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>43,98; 45,63</t>
+          <t>44,19; 45,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>45,92; 47,58</t>
+          <t>44,48; 46,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>47,65; 49,47</t>
+          <t>48,51; 56,32</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>44,45</t>
+          <t>42,21</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>43,54</t>
+          <t>45,24</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>44,59</t>
+          <t>46,92</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>49,33</t>
+          <t>49,12</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>46,31</t>
+          <t>45,27</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>46,58</t>
+          <t>48,14</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>46,3</t>
+          <t>49,16</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>51,55</t>
+          <t>50,31</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>45,38</t>
+          <t>43,82</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>45,08</t>
+          <t>46,77</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>45,46</t>
+          <t>48,1</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>50,54</t>
+          <t>49,77</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,15; 45,84</t>
+          <t>41,17; 43,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>42,24; 45,0</t>
+          <t>44,1; 46,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,34; 45,97</t>
+          <t>45,77; 47,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>47,54; 50,93</t>
+          <t>47,55; 50,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,96; 47,7</t>
+          <t>44,13; 46,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,27; 47,88</t>
+          <t>46,96; 49,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>44,87; 47,6</t>
+          <t>47,96; 50,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,96; 56,95</t>
+          <t>46,74; 51,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>44,38; 46,3</t>
+          <t>43,01; 44,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>44,19; 45,99</t>
+          <t>45,86; 47,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>44,48; 46,33</t>
+          <t>47,32; 48,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>48,9; 53,9</t>
+          <t>48,08; 50,87</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>42,21</t>
+          <t>43,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>45,24</t>
+          <t>44,75</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>46,92</t>
+          <t>46,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>49,73</t>
+          <t>48,59</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>45,27</t>
+          <t>45,78</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>48,14</t>
+          <t>47,06</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>49,16</t>
+          <t>48,27</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>51,26</t>
+          <t>51,04</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>43,82</t>
+          <t>44,62</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>46,77</t>
+          <t>45,93</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>48,1</t>
+          <t>47,16</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>50,56</t>
+          <t>49,86</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>41,17; 43,29</t>
+          <t>42,8; 44,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>44,1; 46,49</t>
+          <t>44,1; 45,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,77; 47,96</t>
+          <t>45,4; 46,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>48,32; 51,08</t>
+          <t>47,76; 49,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>44,13; 46,49</t>
+          <t>45,18; 46,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,96; 49,28</t>
+          <t>46,43; 47,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>47,96; 50,45</t>
+          <t>47,6; 48,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>49,9; 52,48</t>
+          <t>49,75; 53,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>43,01; 44,61</t>
+          <t>44,13; 45,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>45,86; 47,57</t>
+          <t>45,56; 46,41</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>47,32; 48,9</t>
+          <t>46,76; 47,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>49,54; 51,48</t>
+          <t>49,15; 51,38</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>43,43</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>44,75</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>46,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>49,07</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>45,78</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>47,06</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>48,27</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>50,95</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>44,62</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>45,93</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>47,16</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>50,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>42,8; 44,07</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>44,1; 45,4</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>45,4; 46,62</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>48,34; 49,78</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>45,18; 46,42</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>46,43; 47,68</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>47,6; 48,94</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>50,13; 52,38</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>44,13; 45,06</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>45,56; 46,41</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>46,76; 47,64</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>49,52; 50,89</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/ED_ADU-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ED_ADU-Habitat-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>42,57; 45,34</t>
+          <t>42,46; 45,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,05; 47,86</t>
+          <t>45,07; 47,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45,66; 48,45</t>
+          <t>45,61; 48,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>47,73; 51,64</t>
+          <t>47,69; 51,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,71; 47,53</t>
+          <t>44,72; 47,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,52; 49,51</t>
+          <t>46,6; 49,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>48,33; 51,23</t>
+          <t>48,23; 51,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,21; 52,65</t>
+          <t>49,35; 52,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>44,06; 46,05</t>
+          <t>44,08; 45,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>46,31; 48,33</t>
+          <t>46,29; 48,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>47,49; 49,36</t>
+          <t>47,42; 49,38</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>49,37; 51,77</t>
+          <t>49,17; 51,86</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,45; 44,72</t>
+          <t>42,39; 44,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,98; 45,26</t>
+          <t>42,99; 45,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,45; 46,67</t>
+          <t>44,48; 46,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>45,97; 49,23</t>
+          <t>45,91; 49,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,48; 46,92</t>
+          <t>44,55; 46,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,42; 46,83</t>
+          <t>44,5; 46,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,76; 49,12</t>
+          <t>46,77; 49,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,52; 50,87</t>
+          <t>48,54; 50,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43,71; 45,43</t>
+          <t>43,75; 45,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>43,98; 45,63</t>
+          <t>44,05; 45,74</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>45,92; 47,58</t>
+          <t>45,86; 47,6</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>47,51; 49,5</t>
+          <t>47,56; 49,44</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>43,15; 45,84</t>
+          <t>43,19; 45,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,24; 45,0</t>
+          <t>42,24; 44,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>43,34; 45,97</t>
+          <t>43,17; 45,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>46,73; 50,33</t>
+          <t>46,63; 50,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>44,96; 47,7</t>
+          <t>45,1; 47,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>45,27; 47,88</t>
+          <t>45,35; 47,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>44,87; 47,6</t>
+          <t>44,99; 47,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>48,77; 59,68</t>
+          <t>48,75; 59,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>44,38; 46,3</t>
+          <t>44,53; 46,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>44,19; 45,99</t>
+          <t>44,16; 46,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>44,48; 46,33</t>
+          <t>44,66; 46,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>48,51; 56,32</t>
+          <t>48,59; 56,43</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>41,17; 43,29</t>
+          <t>41,07; 43,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>44,1; 46,49</t>
+          <t>44,01; 46,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,77; 47,96</t>
+          <t>45,83; 48,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>47,55; 50,58</t>
+          <t>47,51; 50,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,13; 46,49</t>
+          <t>44,14; 46,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,96; 49,28</t>
+          <t>47,0; 49,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47,96; 50,45</t>
+          <t>48,0; 50,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>46,74; 51,82</t>
+          <t>46,96; 51,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>43,01; 44,61</t>
+          <t>43,03; 44,62</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>45,86; 47,57</t>
+          <t>45,98; 47,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>47,32; 48,9</t>
+          <t>47,38; 49,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>48,08; 50,87</t>
+          <t>47,79; 50,89</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42,8; 44,07</t>
+          <t>42,78; 44,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>44,1; 45,4</t>
+          <t>44,12; 45,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,4; 46,62</t>
+          <t>45,43; 46,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>47,76; 49,42</t>
+          <t>47,74; 49,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>45,18; 46,42</t>
+          <t>45,13; 46,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,43; 47,68</t>
+          <t>46,41; 47,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>47,6; 48,94</t>
+          <t>47,57; 48,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>49,75; 53,81</t>
+          <t>49,73; 53,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>44,13; 45,06</t>
+          <t>44,15; 45,09</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>45,56; 46,41</t>
+          <t>45,5; 46,38</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>46,76; 47,64</t>
+          <t>46,71; 47,6</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>49,15; 51,38</t>
+          <t>49,09; 51,75</t>
         </is>
       </c>
     </row>
